--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject17.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject17.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.68930990801439174</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.83052083870730686</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -164,7 +164,7 @@
         <v>0</v>
       </c>
       <c r="M1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N1" s="0">
         <v>0</v>
@@ -239,7 +239,7 @@
         <v>0</v>
       </c>
       <c r="AL1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM1" s="0">
         <v>0</v>
@@ -293,7 +293,7 @@
         <v>0</v>
       </c>
       <c r="BD1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE1" s="0">
         <v>0</v>
@@ -314,7 +314,7 @@
         <v>0</v>
       </c>
       <c r="BK1" s="0">
-        <v>0</v>
+        <v>0.79631261692676392</v>
       </c>
       <c r="BL1" s="0">
         <v>0</v>
@@ -326,15 +326,15 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0</v>
+        <v>0.54861570736423748</v>
       </c>
       <c r="BP1" s="0">
-        <v>0</v>
+        <v>0.75363057107493181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.82466700350286071</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0">
-        <v>0</v>
+        <v>0.91644526624634559</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -463,7 +463,7 @@
         <v>0</v>
       </c>
       <c r="AR2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="0">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
       <c r="AZ2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="0">
         <v>0</v>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="BL2" s="0">
-        <v>0</v>
+        <v>0.89738304929979451</v>
       </c>
       <c r="BM2" s="0">
         <v>0</v>
@@ -535,12 +535,12 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0</v>
+        <v>0.53492547011650304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.93506051133611856</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.90525867031213614</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.51662489693562352</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="BB3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="0">
         <v>0</v>
       </c>
       <c r="BD3" s="0">
-        <v>1</v>
+        <v>0.78998510615287554</v>
       </c>
       <c r="BE3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.52348401044666781</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.60599749775083589</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.91446856174408186</v>
       </c>
       <c r="F4" s="0">
-        <v>0</v>
+        <v>0.92652031872168994</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="AD4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="0">
         <v>0</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="AV4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="0">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="BO4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.67092188632537553</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.61067293233155984</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.75058842388009983</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0.712049090792783</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="0">
-        <v>0</v>
+        <v>0.83186522738874369</v>
       </c>
       <c r="AC5" s="0">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0</v>
+        <v>0.79691093350327724</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.67692625950570684</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0.76441001018069343</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.65361315357654104</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0.61426075574500993</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0.59446253983006836</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.8147091730535535</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.76286495613617578</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="0">
-        <v>0</v>
+        <v>0.72442563481576072</v>
       </c>
       <c r="AH7" s="0">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="AY7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.71392281109811861</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.84778050135621652</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.51604585511969092</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.61032550228995319</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="0">
-        <v>0</v>
+        <v>0.6302255953672633</v>
       </c>
       <c r="AI8" s="0">
         <v>0</v>
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="BI8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.68082998277207585</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.83119134872505729</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.93434059552160265</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="0">
-        <v>0</v>
+        <v>0.88751733915840414</v>
       </c>
       <c r="AL9" s="0">
         <v>0</v>
@@ -2003,25 +2003,25 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.81824899339809343</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
       </c>
       <c r="N10" s="0">
-        <v>0</v>
+        <v>0.92526852291478323</v>
       </c>
       <c r="O10" s="0">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="AN10" s="0">
-        <v>0</v>
+        <v>0.92316234019731258</v>
       </c>
       <c r="AO10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.67398355998227066</v>
       </c>
       <c r="J11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.92932684858439185</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.99328928916569414</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="Z11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" s="0">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="AO11" s="0">
-        <v>0</v>
+        <v>0.63604712286673426</v>
       </c>
       <c r="AP11" s="0">
         <v>0</v>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="BF11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="0">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="BL11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.6088635798118639</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.67016629204291445</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.6828110899840758</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="BF12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG12" s="0">
         <v>0</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.97325982377126552</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.93362675093466208</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0</v>
+        <v>0.61823758501463666</v>
       </c>
       <c r="O13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="0">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="0">
-        <v>0</v>
+        <v>0.88628972411409968</v>
       </c>
       <c r="AD13" s="0">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="0">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="0">
-        <v>0</v>
+        <v>0.58761013037738041</v>
       </c>
       <c r="AY13" s="0">
         <v>0</v>
@@ -2833,25 +2833,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>0</v>
+        <v>0.82594786214562566</v>
       </c>
       <c r="K14" s="0">
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.74399144134659445</v>
       </c>
       <c r="M14" s="0">
-        <v>0</v>
+        <v>0.66342863385070805</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0</v>
+        <v>0.92163246312748792</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="U14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="0">
         <v>0</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="BF14" s="0">
-        <v>0</v>
+        <v>0.93723334136093395</v>
       </c>
       <c r="BG14" s="0">
         <v>0</v>
@@ -3048,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="0">
-        <v>0</v>
+        <v>0.94059391970264594</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.89531136581611714</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="AV15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="0">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="0">
-        <v>0</v>
+        <v>0.90049845186295019</v>
       </c>
       <c r="BK15" s="0">
         <v>0</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="0">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>1</v>
+        <v>0.63898543708454703</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0.71345942311291566</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="AQ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="0">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="BJ16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK16" s="0">
         <v>0</v>
@@ -3466,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.72957434471916316</v>
       </c>
       <c r="P17" s="0">
-        <v>1</v>
+        <v>0.95789808557353862</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.53891241237906096</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
       <c r="AN17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="0">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="AQ17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="0">
         <v>0</v>
@@ -3580,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="BA17" s="0">
-        <v>0</v>
+        <v>0.88311515607603486</v>
       </c>
       <c r="BB17" s="0">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="BL17" s="0">
-        <v>0</v>
+        <v>0.50557914140593307</v>
       </c>
       <c r="BM17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0.9021185330824214</v>
       </c>
       <c r="Q18" s="0">
         <v>0</v>
@@ -3687,13 +3687,13 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.8304074551610825</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
       </c>
       <c r="V18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="0">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="BP18" s="0">
-        <v>0</v>
+        <v>0.66889989213625256</v>
       </c>
     </row>
     <row r="19">
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.83526086773030439</v>
       </c>
       <c r="R19" s="0">
         <v>0</v>
@@ -3893,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.75503589310083974</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="BP19" s="0">
-        <v>0</v>
+        <v>0.53006878563455728</v>
       </c>
     </row>
     <row r="20">
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.94726771428971612</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.63247946019647594</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="AH20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="0">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>0</v>
+        <v>0.87040690603727422</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
@@ -4204,7 +4204,7 @@
         <v>0</v>
       </c>
       <c r="BC20" s="0">
-        <v>0</v>
+        <v>0.89630491529159029</v>
       </c>
       <c r="BD20" s="0">
         <v>0</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" s="0">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.99718619061828107</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4311,10 +4311,10 @@
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.96099502767314016</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4368,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="0">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="0">
-        <v>0</v>
+        <v>0.54217815708639128</v>
       </c>
       <c r="BE21" s="0">
         <v>0</v>
@@ -4505,25 +4505,25 @@
         <v>0</v>
       </c>
       <c r="R22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22" s="0">
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.73166794720449957</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.92886110919709308</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.72996917134424744</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.84756149768654243</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="BI22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.70754580991157101</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.63703092194881084</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="0">
-        <v>0</v>
+        <v>0.70249424889218504</v>
       </c>
       <c r="AE23" s="0">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="AH23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI23" s="0">
         <v>0</v>
@@ -4810,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="AY23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ23" s="0">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="BI23" s="0">
-        <v>0</v>
+        <v>0.70968184935108802</v>
       </c>
       <c r="BJ23" s="0">
         <v>0</v>
@@ -4929,19 +4929,19 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.73260409032443852</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="0">
-        <v>0</v>
+        <v>0.71679814969095013</v>
       </c>
       <c r="AO24" s="0">
         <v>0</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="BB24" s="0">
-        <v>0</v>
+        <v>0.88736652542451244</v>
       </c>
       <c r="BC24" s="0">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>0</v>
+        <v>0.88492144691478869</v>
       </c>
       <c r="BH24" s="0">
         <v>0</v>
@@ -5138,10 +5138,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.55467443955673734</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.69454698722262775</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="0">
-        <v>0</v>
+        <v>0.85093971349125086</v>
       </c>
       <c r="AG25" s="0">
         <v>0</v>
@@ -5261,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="BL25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM25" s="0">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5356,10 +5356,10 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.92997534482954247</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="BL26" s="0">
-        <v>0</v>
+        <v>0.62393331906480198</v>
       </c>
       <c r="BM26" s="0">
         <v>0</v>
@@ -5556,10 +5556,10 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.98212814372237434</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="AC27" s="0">
-        <v>1</v>
+        <v>0.7289352655505873</v>
       </c>
       <c r="AD27" s="0">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO27" s="0">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="BN27" s="0">
-        <v>0</v>
+        <v>0.98809367272803228</v>
       </c>
       <c r="BO27" s="0">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="0">
-        <v>0</v>
+        <v>0.61736288301134012</v>
       </c>
       <c r="F28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.64538149709946224</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5774,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5792,7 +5792,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="0">
-        <v>0</v>
+        <v>0.71831231938243878</v>
       </c>
       <c r="AJ28" s="0">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="0">
-        <v>0</v>
+        <v>0.53299261422331079</v>
       </c>
       <c r="AR28" s="0">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="BC28" s="0">
-        <v>0</v>
+        <v>0.6125632910951111</v>
       </c>
       <c r="BD28" s="0">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="0">
-        <v>0</v>
+        <v>0.94134514584010565</v>
       </c>
       <c r="N29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>1</v>
+        <v>0.5006363967680868</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0.60439402860089131</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>0.84195108999252044</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="BA29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" s="0">
         <v>0</v>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
       <c r="BF29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG29" s="0">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="D30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="0">
         <v>0</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="0">
-        <v>0</v>
+        <v>0.97749316891685356</v>
       </c>
       <c r="X30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0.95072350397032745</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.9617311171177656</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.77787693514748724</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>0.69067669421827371</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.65511186032316315</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0.84117335385113434</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.79756911662041252</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6526,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="0">
         <v>0</v>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="0">
-        <v>0</v>
+        <v>0.71389271388762587</v>
       </c>
       <c r="Z32" s="0">
         <v>0</v>
@@ -6601,22 +6601,22 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.79259556454103297</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0.78427141282619917</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.86877071586947907</v>
       </c>
       <c r="AH32" s="0">
-        <v>0</v>
+        <v>0.57027362225746903</v>
       </c>
       <c r="AI32" s="0">
-        <v>0</v>
+        <v>0.53178022157422167</v>
       </c>
       <c r="AJ32" s="0">
         <v>0</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="AQ32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR32" s="0">
         <v>0</v>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
       <c r="BK32" s="0">
-        <v>0</v>
+        <v>0.74224325402001212</v>
       </c>
       <c r="BL32" s="0">
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="BN32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO32" s="0">
         <v>0</v>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="0">
-        <v>0</v>
+        <v>0.92937894711528379</v>
       </c>
       <c r="H33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.56026849026586423</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.78737146142430836</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.73145467713989465</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="0">
-        <v>0</v>
+        <v>0.7281042958195918</v>
       </c>
       <c r="I34" s="0">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="0">
         <v>0</v>
@@ -6992,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="0">
         <v>0</v>
@@ -7019,16 +7019,16 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0</v>
+        <v>0.8302198300356689</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.89663323572364484</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>0</v>
+        <v>0.91332471908605739</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="0">
-        <v>0</v>
+        <v>0.52469541541487275</v>
       </c>
       <c r="AC35" s="0">
         <v>0</v>
@@ -7225,13 +7225,13 @@
         <v>0</v>
       </c>
       <c r="AF35" s="0">
-        <v>0</v>
+        <v>0.98614215476483547</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0</v>
+        <v>0.88763461686472866</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
       <c r="AO35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35" s="0">
         <v>0</v>
@@ -7261,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="AR35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="0">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0.89987575630154071</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.68943307266076448</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7476,7 +7476,7 @@
         <v>0</v>
       </c>
       <c r="AU36" s="0">
-        <v>0</v>
+        <v>0.90682575267759646</v>
       </c>
       <c r="AV36" s="0">
         <v>0</v>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="0">
-        <v>0</v>
+        <v>0.75387537662860282</v>
       </c>
       <c r="J37" s="0">
         <v>0</v>
@@ -7649,13 +7649,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0.50447317400687575</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.67652511215002997</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="0">
-        <v>0</v>
+        <v>0.60632336110805185</v>
       </c>
       <c r="AQ37" s="0">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="BI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ37" s="0">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="BO37" s="0">
-        <v>0</v>
+        <v>0.85659835770909643</v>
       </c>
       <c r="BP37" s="0">
         <v>0</v>
@@ -7750,7 +7750,7 @@
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B38" s="0">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.88485117291585214</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.69381538044754709</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="0">
-        <v>0</v>
+        <v>0.8618917136500196</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="BB38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC38" s="0">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>0</v>
+        <v>0.60921304922475494</v>
       </c>
       <c r="BF38" s="0">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.61705987801289075</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.97106382247516632</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
       <c r="AY39" s="0">
-        <v>0</v>
+        <v>0.77142587875742985</v>
       </c>
       <c r="AZ39" s="0">
         <v>0</v>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="0">
-        <v>0</v>
+        <v>0.54002986214024085</v>
       </c>
       <c r="K40" s="0">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="0">
         <v>0</v>
@@ -8210,7 +8210,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" s="0">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="0">
-        <v>0</v>
+        <v>0.59367883623955708</v>
       </c>
       <c r="Y40" s="0">
         <v>0</v>
@@ -8240,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="0">
         <v>0</v>
@@ -8273,19 +8273,19 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0</v>
+        <v>0.82699151869660792</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.59055981203961849</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0</v>
+        <v>0.57294262631890258</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0.57762674229765154</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="0">
-        <v>0</v>
+        <v>0.52184178794182534</v>
       </c>
       <c r="L41" s="0">
         <v>0</v>
@@ -8428,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="U41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" s="0">
         <v>0</v>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="AI41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="0">
         <v>0</v>
@@ -8482,19 +8482,19 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.89070516333786753</v>
       </c>
       <c r="AN41" s="0">
-        <v>0</v>
+        <v>0.94075664703578621</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0.59128770588588564</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="0">
-        <v>0</v>
+        <v>0.62202160370207593</v>
       </c>
       <c r="AL42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0.50548201129754722</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.94834942069752226</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="BL42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM42" s="0">
         <v>0</v>
@@ -8825,10 +8825,10 @@
         <v>0</v>
       </c>
       <c r="P43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" s="0">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="0">
-        <v>0</v>
+        <v>0.7326153918557019</v>
       </c>
       <c r="AC43" s="0">
         <v>0</v>
@@ -8873,7 +8873,7 @@
         <v>0</v>
       </c>
       <c r="AF43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="0">
         <v>0</v>
@@ -8900,10 +8900,10 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0.91576533144714123</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.90963643071915112</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.93916912571615219</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="BB43" s="0">
-        <v>0</v>
+        <v>0.7748242779160206</v>
       </c>
       <c r="BC43" s="0">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="BP43" s="0">
-        <v>0</v>
+        <v>0.52686068203256742</v>
       </c>
     </row>
     <row r="44">
@@ -8989,7 +8989,7 @@
         <v>0</v>
       </c>
       <c r="B44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C44" s="0">
         <v>0</v>
@@ -9088,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="AI44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ44" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9118,10 +9118,10 @@
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.96098495539965234</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.66765259581474734</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.83642134188108097</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.93306212017073875</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.94086790402846809</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.68802507517264522</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.775407234259057</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.64451089914171122</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0.98607056747611121</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.87037536004448124</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="T47" s="0">
-        <v>0</v>
+        <v>0.90684345692749868</v>
       </c>
       <c r="U47" s="0">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="0">
-        <v>0</v>
+        <v>0.55554338998694575</v>
       </c>
       <c r="AK47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.66719336315310118</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0.92537754699397223</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>1</v>
+        <v>0.62121446036350525</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="BB47" s="0">
-        <v>0</v>
+        <v>0.88394971160240776</v>
       </c>
       <c r="BC47" s="0">
         <v>0</v>
@@ -9790,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="BK47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL47" s="0">
         <v>0</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="BP47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -9819,7 +9819,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" s="0">
         <v>0</v>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.8984675166378131</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0.84857622405164723</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.65033939771967941</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>1</v>
+        <v>0.80207764297577278</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0.527935615244992</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0.54273221048276132</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.63546990029491313</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="0">
-        <v>0</v>
+        <v>0.71070812536123262</v>
       </c>
       <c r="N50" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.71600630981883717</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0.94858560961717875</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>0</v>
+        <v>0.6955906564640415</v>
       </c>
       <c r="BD50" s="0">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="BK50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL50" s="0">
         <v>0</v>
@@ -10446,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="G51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="0">
         <v>0</v>
@@ -10494,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51" s="0">
         <v>0</v>
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="AM51" s="0">
-        <v>0</v>
+        <v>0.50721951419263001</v>
       </c>
       <c r="AN51" s="0">
         <v>0</v>
@@ -10572,16 +10572,16 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.73976939327916935</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0.98916950224676659</v>
       </c>
       <c r="BA51" s="0">
         <v>0</v>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="B52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0.64752558217012024</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.82016995366462386</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0.85121490427881408</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="0">
-        <v>0</v>
+        <v>0.66611718360490502</v>
       </c>
       <c r="R53" s="0">
         <v>0</v>
@@ -10924,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="AC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="0">
         <v>0</v>
@@ -10993,19 +10993,19 @@
         <v>0</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.91426027713261959</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.80965223711856016</v>
       </c>
       <c r="BC53" s="0">
-        <v>0</v>
+        <v>0.63858079611409002</v>
       </c>
       <c r="BD53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE53" s="0">
         <v>0</v>
@@ -11020,7 +11020,7 @@
         <v>0</v>
       </c>
       <c r="BI53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ53" s="0">
         <v>0</v>
@@ -11052,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="C54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="0">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="0">
-        <v>0</v>
+        <v>0.74118634633016722</v>
       </c>
       <c r="Y54" s="0">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="AL54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" s="0">
         <v>0</v>
@@ -11172,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="AQ54" s="0">
-        <v>0</v>
+        <v>0.99215393793519557</v>
       </c>
       <c r="AR54" s="0">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>0</v>
+        <v>0.51410143498056327</v>
       </c>
       <c r="AV54" s="0">
         <v>0</v>
@@ -11199,16 +11199,16 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0.85651273762159086</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.73236122986455499</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD54" s="0">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>0</v>
+        <v>0.87692978953941914</v>
       </c>
       <c r="U55" s="0">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="AB55" s="0">
-        <v>0</v>
+        <v>0.71850743091106417</v>
       </c>
       <c r="AC55" s="0">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="AX55" s="0">
-        <v>0</v>
+        <v>0.89823878207356489</v>
       </c>
       <c r="AY55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0</v>
+        <v>0.62774100497473384</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11458,13 +11458,13 @@
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B56" s="0">
         <v>0</v>
       </c>
       <c r="C56" s="0">
-        <v>1</v>
+        <v>0.81034321904513629</v>
       </c>
       <c r="D56" s="0">
         <v>0</v>
@@ -11518,7 +11518,7 @@
         <v>0</v>
       </c>
       <c r="U56" s="0">
-        <v>0</v>
+        <v>0.6464116174890252</v>
       </c>
       <c r="V56" s="0">
         <v>0</v>
@@ -11614,22 +11614,22 @@
         <v>0</v>
       </c>
       <c r="BA56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="0">
         <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.73436157221681375</v>
       </c>
       <c r="BF56" s="0">
-        <v>0</v>
+        <v>0.50752792536667046</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11653,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="BN56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO56" s="0">
         <v>0</v>
@@ -11775,7 +11775,7 @@
         <v>0</v>
       </c>
       <c r="AL57" s="0">
-        <v>0</v>
+        <v>0.63166421848769827</v>
       </c>
       <c r="AM57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.50392937684043548</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.92500025122001972</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.82155142390710423</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11900,16 +11900,16 @@
         <v>0</v>
       </c>
       <c r="K58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58" s="0">
         <v>0</v>
       </c>
       <c r="N58" s="0">
-        <v>0</v>
+        <v>0.60816247025446923</v>
       </c>
       <c r="O58" s="0">
         <v>0</v>
@@ -11954,7 +11954,7 @@
         <v>0</v>
       </c>
       <c r="AC58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD58" s="0">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>0</v>
+        <v>0.54143980502933542</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.71880907642559899</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0.67803404700212311</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="0">
-        <v>0</v>
+        <v>0.72276331456637588</v>
       </c>
       <c r="Y59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.60318267653348134</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0.77655315347601217</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.66811295261333847</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.70982325551256276</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.54504294309203305</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12509,7 +12509,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="0">
         <v>0</v>
@@ -12551,10 +12551,10 @@
         <v>0</v>
       </c>
       <c r="V61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" s="0">
-        <v>0</v>
+        <v>0.78744278707254911</v>
       </c>
       <c r="X61" s="0">
         <v>0</v>
@@ -12596,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="AK61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL61" s="0">
         <v>0</v>
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="BA61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB61" s="0">
         <v>0</v>
@@ -12662,16 +12662,16 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.54367382598816238</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.77678455984245964</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0</v>
+        <v>0.65439971587443457</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="BM61" s="0">
-        <v>0</v>
+        <v>0.7290066008077889</v>
       </c>
       <c r="BN61" s="0">
         <v>0</v>
@@ -12736,10 +12736,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="0">
-        <v>0</v>
+        <v>0.98668698280987233</v>
       </c>
       <c r="P62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.60032835536416818</v>
       </c>
       <c r="BI62" s="0">
-        <v>0</v>
+        <v>0.58431082079008578</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>0</v>
+        <v>0.67363466881383238</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.51622098816946305</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0</v>
+        <v>0.65589652701055556</v>
       </c>
       <c r="B63" s="0">
         <v>0</v>
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="AF63" s="0">
-        <v>0</v>
+        <v>0.60476504855329272</v>
       </c>
       <c r="AG63" s="0">
         <v>0</v>
@@ -13038,7 +13038,7 @@
         <v>0</v>
       </c>
       <c r="AU63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV63" s="0">
         <v>0</v>
@@ -13047,7 +13047,7 @@
         <v>0</v>
       </c>
       <c r="AX63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0</v>
+        <v>0.52870636487669587</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13101,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="BP63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0</v>
+        <v>0.50838726911440846</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" s="0">
         <v>0</v>
@@ -13154,7 +13154,7 @@
         <v>0</v>
       </c>
       <c r="Q64" s="0">
-        <v>0</v>
+        <v>0.94854652313164989</v>
       </c>
       <c r="R64" s="0">
         <v>0</v>
@@ -13178,10 +13178,10 @@
         <v>0</v>
       </c>
       <c r="Y64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="0">
-        <v>0</v>
+        <v>0.60069195851939139</v>
       </c>
       <c r="AA64" s="0">
         <v>0</v>
@@ -13229,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="AP64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.50850956936160796</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0</v>
+        <v>0.60685309470092608</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13492,7 +13492,7 @@
         <v>0</v>
       </c>
       <c r="BI65" s="0">
-        <v>0</v>
+        <v>0.92827104505839553</v>
       </c>
       <c r="BJ65" s="0">
         <v>0</v>
@@ -13507,10 +13507,10 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.82194912212470839</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>0</v>
+        <v>0.87531918970717593</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
@@ -13611,7 +13611,7 @@
         <v>0</v>
       </c>
       <c r="AF66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="0">
         <v>0</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="BD66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>0</v>
+        <v>0.71437321325248981</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.57605563484788203</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0</v>
+        <v>0.74999618986789285</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.57078493406134356</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0</v>
+        <v>0.66392089361373463</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13733,7 +13733,7 @@
         <v>0</v>
       </c>
       <c r="D67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E67" s="0">
         <v>0</v>
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="0">
-        <v>0</v>
+        <v>0.50587489434048583</v>
       </c>
       <c r="AL67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN67" s="0">
-        <v>0</v>
+        <v>0.99973303513788059</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.74434527120494121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0</v>
+        <v>0.52085464957356087</v>
       </c>
       <c r="B68" s="0">
-        <v>0</v>
+        <v>0.89335677986234918</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -13981,10 +13981,10 @@
         <v>0</v>
       </c>
       <c r="R68" s="0">
-        <v>0</v>
+        <v>0.92477338193199865</v>
       </c>
       <c r="S68" s="0">
-        <v>0</v>
+        <v>0.98318189263679667</v>
       </c>
       <c r="T68" s="0">
         <v>0</v>
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="0">
-        <v>0</v>
+        <v>0.86531850768672358</v>
       </c>
       <c r="AR68" s="0">
         <v>0</v>
@@ -14068,7 +14068,7 @@
         <v>0</v>
       </c>
       <c r="AU68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV68" s="0">
         <v>0</v>
@@ -14116,7 +14116,7 @@
         <v>0</v>
       </c>
       <c r="BK68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.57103300446304073</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.96213047349495373</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject17.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject17.xlsx
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.68930990801439174</v>
+        <v>0.82466700350286071</v>
       </c>
       <c r="C1" s="0">
-        <v>0.83052083870730686</v>
+        <v>0.93506051133611856</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -326,7 +326,7 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>0.54861570736423748</v>
+        <v>0.66392089361373463</v>
       </c>
       <c r="BP1" s="0">
         <v>0.75363057107493181</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.53492547011650304</v>
+        <v>0.89335677986234918</v>
       </c>
     </row>
     <row r="3">
@@ -552,7 +552,7 @@
         <v>0.90525867031213614</v>
       </c>
       <c r="E3" s="0">
-        <v>0.51662489693562352</v>
+        <v>0.67092188632537553</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="BD3" s="0">
-        <v>0.78998510615287554</v>
+        <v>0.81034321904513629</v>
       </c>
       <c r="BE3" s="0">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>0.52348401044666781</v>
+        <v>0.91644526624634559</v>
       </c>
       <c r="C4" s="0">
-        <v>0.60599749775083589</v>
+        <v>0.90525867031213614</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0.67092188632537553</v>
       </c>
       <c r="D5" s="0">
-        <v>0.61067293233155984</v>
+        <v>0.91446856174408186</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.79691093350327724</v>
+        <v>0.92652031872168994</v>
       </c>
       <c r="E6" s="0">
-        <v>0.67692625950570684</v>
+        <v>0.75058842388009983</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
@@ -1179,7 +1179,7 @@
         <v>0.76441001018069343</v>
       </c>
       <c r="H6" s="0">
-        <v>0.65361315357654104</v>
+        <v>0.71392281109811861</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1376,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0.61426075574500993</v>
+        <v>0.712049090792783</v>
       </c>
       <c r="F7" s="0">
-        <v>0.59446253983006836</v>
+        <v>0.76441001018069343</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.8147091730535535</v>
+        <v>0.84778050135621652</v>
       </c>
       <c r="I7" s="0">
         <v>0.76286495613617578</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="AG7" s="0">
-        <v>0.72442563481576072</v>
+        <v>0.92937894711528379</v>
       </c>
       <c r="AH7" s="0">
         <v>0</v>
@@ -1594,10 +1594,10 @@
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0.51604585511969092</v>
+        <v>0.83119134872505729</v>
       </c>
       <c r="J8" s="0">
-        <v>0.61032550228995319</v>
+        <v>0.81824899339809343</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="0">
-        <v>0.6302255953672633</v>
+        <v>0.7281042958195918</v>
       </c>
       <c r="AI8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.68082998277207585</v>
+        <v>0.76286495613617578</v>
       </c>
       <c r="H9" s="0">
         <v>0.83119134872505729</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.67398355998227066</v>
+        <v>0.93434059552160265</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2424,16 +2424,16 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0.6088635798118639</v>
+        <v>0.92932684858439185</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>0.67016629204291445</v>
+        <v>0.93362675093466208</v>
       </c>
       <c r="N12" s="0">
-        <v>0.6828110899840758</v>
+        <v>0.74399144134659445</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.97325982377126552</v>
+        <v>0.99328928916569414</v>
       </c>
       <c r="L13" s="0">
         <v>0.93362675093466208</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.61823758501463666</v>
+        <v>0.66342863385070805</v>
       </c>
       <c r="O13" s="0">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="0">
-        <v>0.88628972411409968</v>
+        <v>0.94134514584010565</v>
       </c>
       <c r="AD13" s="0">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
       <c r="AX13" s="0">
-        <v>0.58761013037738041</v>
+        <v>0.71070812536123262</v>
       </c>
       <c r="AY13" s="0">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="0">
-        <v>0.82594786214562566</v>
+        <v>0.92526852291478323</v>
       </c>
       <c r="K14" s="0">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>0.92163246312748792</v>
+        <v>0.94059391970264594</v>
       </c>
       <c r="P14" s="0">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="BJ15" s="0">
-        <v>0.90049845186295019</v>
+        <v>0.98668698280987233</v>
       </c>
       <c r="BK15" s="0">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0.63898543708454703</v>
+        <v>0.95789808557353862</v>
       </c>
       <c r="R16" s="0">
-        <v>0.71345942311291566</v>
+        <v>0.9021185330824214</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.72957434471916316</v>
+        <v>0.89531136581611714</v>
       </c>
       <c r="P17" s="0">
         <v>0.95789808557353862</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="S17" s="0">
-        <v>0.53891241237906096</v>
+        <v>0.83526086773030439</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="BL17" s="0">
-        <v>0.50557914140593307</v>
+        <v>0.94854652313164989</v>
       </c>
       <c r="BM17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0.8304074551610825</v>
+        <v>0.94726771428971612</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="BP18" s="0">
-        <v>0.66889989213625256</v>
+        <v>0.92477338193199865</v>
       </c>
     </row>
     <row r="19">
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="0">
-        <v>0.75503589310083974</v>
+        <v>0.99718619061828107</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="BP19" s="0">
-        <v>0.53006878563455728</v>
+        <v>0.98318189263679667</v>
       </c>
     </row>
     <row r="20">
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="0">
-        <v>0.63247946019647594</v>
+        <v>0.73166794720449957</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="AU20" s="0">
-        <v>0.87040690603727422</v>
+        <v>0.90684345692749868</v>
       </c>
       <c r="AV20" s="0">
         <v>0</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="BD21" s="0">
-        <v>0.54217815708639128</v>
+        <v>0.6464116174890252</v>
       </c>
       <c r="BE21" s="0">
         <v>0</v>
@@ -4514,7 +4514,7 @@
         <v>0.73166794720449957</v>
       </c>
       <c r="U22" s="0">
-        <v>0.92886110919709308</v>
+        <v>0.96099502767314016</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0.70754580991157101</v>
+        <v>0.72996917134424744</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="AD23" s="0">
-        <v>0.70249424889218504</v>
+        <v>0.97749316891685356</v>
       </c>
       <c r="AE23" s="0">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="BI23" s="0">
-        <v>0.70968184935108802</v>
+        <v>0.78744278707254911</v>
       </c>
       <c r="BJ23" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.73260409032443852</v>
+        <v>0.84756149768654243</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.55467443955673734</v>
+        <v>0.63703092194881084</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0.69454698722262775</v>
+        <v>0.98212814372237434</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="0">
-        <v>0.61736288301134012</v>
+        <v>0.83186522738874369</v>
       </c>
       <c r="F28" s="0">
         <v>0</v>
@@ -5765,7 +5765,7 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.64538149709946224</v>
+        <v>0.92997534482954247</v>
       </c>
       <c r="AA28" s="0">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="0">
-        <v>0.53299261422331079</v>
+        <v>0.7326153918557019</v>
       </c>
       <c r="AR28" s="0">
         <v>0</v>
@@ -5852,7 +5852,7 @@
         <v>0</v>
       </c>
       <c r="BC28" s="0">
-        <v>0.6125632910951111</v>
+        <v>0.71850743091106417</v>
       </c>
       <c r="BD28" s="0">
         <v>0</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.5006363967680868</v>
+        <v>0.7289352655505873</v>
       </c>
       <c r="AB29" s="0">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.60439402860089131</v>
+        <v>0.95072350397032745</v>
       </c>
       <c r="AE29" s="0">
         <v>0.84195108999252044</v>
@@ -6195,7 +6195,7 @@
         <v>0.9617311171177656</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.77787693514748724</v>
+        <v>0.79259556454103297</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6392,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.69067669421827371</v>
+        <v>0.84195108999252044</v>
       </c>
       <c r="AD31" s="0">
-        <v>0.65511186032316315</v>
+        <v>0.9617311171177656</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="Y32" s="0">
-        <v>0.71389271388762587</v>
+        <v>0.85093971349125086</v>
       </c>
       <c r="Z32" s="0">
         <v>0</v>
@@ -6604,7 +6604,7 @@
         <v>0.79259556454103297</v>
       </c>
       <c r="AE32" s="0">
-        <v>0.78427141282619917</v>
+        <v>0.84117335385113434</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
@@ -6613,10 +6613,10 @@
         <v>0.86877071586947907</v>
       </c>
       <c r="AH32" s="0">
-        <v>0.57027362225746903</v>
+        <v>0.8302198300356689</v>
       </c>
       <c r="AI32" s="0">
-        <v>0.53178022157422167</v>
+        <v>0.98614215476483547</v>
       </c>
       <c r="AJ32" s="0">
         <v>0</v>
@@ -6810,16 +6810,16 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.56026849026586423</v>
+        <v>0.79756911662041252</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.78737146142430836</v>
+        <v>0.86877071586947907</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.73145467713989465</v>
+        <v>0.89663323572364484</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="0">
-        <v>0.52469541541487275</v>
+        <v>0.71831231938243878</v>
       </c>
       <c r="AC35" s="0">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.88763461686472866</v>
+        <v>0.91332471908605739</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
@@ -7449,7 +7449,7 @@
         <v>0.89987575630154071</v>
       </c>
       <c r="AL36" s="0">
-        <v>0.68943307266076448</v>
+        <v>0.88485117291585214</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="0">
-        <v>0.75387537662860282</v>
+        <v>0.88751733915840414</v>
       </c>
       <c r="J37" s="0">
         <v>0</v>
@@ -7649,13 +7649,13 @@
         <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>0.50447317400687575</v>
+        <v>0.89987575630154071</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>0.67652511215002997</v>
+        <v>0.69381538044754709</v>
       </c>
       <c r="AM37" s="0">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="0">
-        <v>0.60632336110805185</v>
+        <v>0.62202160370207593</v>
       </c>
       <c r="AQ37" s="0">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="BE38" s="0">
-        <v>0.60921304922475494</v>
+        <v>0.63166421848769827</v>
       </c>
       <c r="BF38" s="0">
         <v>0</v>
@@ -8189,7 +8189,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="0">
-        <v>0.54002986214024085</v>
+        <v>0.92316234019731258</v>
       </c>
       <c r="K40" s="0">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="0">
-        <v>0.59367883623955708</v>
+        <v>0.71679814969095013</v>
       </c>
       <c r="Y40" s="0">
         <v>0</v>
@@ -8273,16 +8273,16 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.82699151869660792</v>
+        <v>0.8618917136500196</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.59055981203961849</v>
+        <v>0.61705987801289075</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0.57294262631890258</v>
+        <v>0.94075664703578621</v>
       </c>
       <c r="AP40" s="0">
         <v>0.57762674229765154</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="0">
-        <v>0.52184178794182534</v>
+        <v>0.63604712286673426</v>
       </c>
       <c r="L41" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.89070516333786753</v>
+        <v>0.97106382247516632</v>
       </c>
       <c r="AN41" s="0">
         <v>0.94075664703578621</v>
@@ -8494,7 +8494,7 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.59128770588588564</v>
+        <v>0.91576533144714123</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>0.50548201129754722</v>
+        <v>0.57762674229765154</v>
       </c>
       <c r="AO42" s="0">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0.91576533144714123</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.90963643071915112</v>
+        <v>0.94834942069752226</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>0</v>
       </c>
       <c r="BB43" s="0">
-        <v>0.7748242779160206</v>
+        <v>0.99215393793519557</v>
       </c>
       <c r="BC43" s="0">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="BP43" s="0">
-        <v>0.52686068203256742</v>
+        <v>0.86531850768672358</v>
       </c>
     </row>
     <row r="44">
@@ -9121,7 +9121,7 @@
         <v>0.96098495539965234</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.66765259581474734</v>
+        <v>0.775407234259057</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9318,10 +9318,10 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.83642134188108097</v>
+        <v>0.93916912571615219</v>
       </c>
       <c r="AR45" s="0">
-        <v>0.93306212017073875</v>
+        <v>0.96098495539965234</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0.775407234259057</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.64451089914171122</v>
+        <v>0.94086790402846809</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0.98607056747611121</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.87037536004448124</v>
+        <v>0.8984675166378131</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="0">
-        <v>0.55554338998694575</v>
+        <v>0.90682575267759646</v>
       </c>
       <c r="AK47" s="0">
         <v>0</v>
@@ -9736,10 +9736,10 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>0.66719336315310118</v>
+        <v>0.68802507517264522</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.92537754699397223</v>
+        <v>0.98607056747611121</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.62121446036350525</v>
+        <v>0.80207764297577278</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0.84857622405164723</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.65033939771967941</v>
+        <v>0.71600630981883717</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10157,16 +10157,16 @@
         <v>0.80207764297577278</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.527935615244992</v>
+        <v>0.84857622405164723</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>0.54273221048276132</v>
+        <v>0.94858560961717875</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.63546990029491313</v>
+        <v>0.73976939327916935</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="BC50" s="0">
-        <v>0.6955906564640415</v>
+        <v>0.89823878207356489</v>
       </c>
       <c r="BD50" s="0">
         <v>0</v>
@@ -10542,7 +10542,7 @@
         <v>0</v>
       </c>
       <c r="AM51" s="0">
-        <v>0.50721951419263001</v>
+        <v>0.77142587875742985</v>
       </c>
       <c r="AN51" s="0">
         <v>0</v>
@@ -10784,16 +10784,16 @@
         <v>0</v>
       </c>
       <c r="AY52" s="0">
-        <v>0.64752558217012024</v>
+        <v>0.98916950224676659</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.82016995366462386</v>
+        <v>0.91426027713261959</v>
       </c>
       <c r="BB52" s="0">
-        <v>0.85121490427881408</v>
+        <v>0.85651273762159086</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10888,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="Q53" s="0">
-        <v>0.66611718360490502</v>
+        <v>0.88311515607603486</v>
       </c>
       <c r="R53" s="0">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="0">
-        <v>0.74118634633016722</v>
+        <v>0.88736652542451244</v>
       </c>
       <c r="Y54" s="0">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>0.51410143498056327</v>
+        <v>0.88394971160240776</v>
       </c>
       <c r="AV54" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0.85651273762159086</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.73236122986455499</v>
+        <v>0.80965223711856016</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>0</v>
       </c>
       <c r="T55" s="0">
-        <v>0.87692978953941914</v>
+        <v>0.89630491529159029</v>
       </c>
       <c r="U55" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>0.62774100497473384</v>
+        <v>0.63858079611409002</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11629,7 +11629,7 @@
         <v>0.73436157221681375</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.50752792536667046</v>
+        <v>0.54143980502933542</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11829,7 +11829,7 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.50392937684043548</v>
+        <v>0.73436157221681375</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="0">
-        <v>0.60816247025446923</v>
+        <v>0.93723334136093395</v>
       </c>
       <c r="O58" s="0">
         <v>0</v>
@@ -12038,13 +12038,13 @@
         <v>0.54143980502933542</v>
       </c>
       <c r="BE58" s="0">
-        <v>0.71880907642559899</v>
+        <v>0.92500025122001972</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.67803404700212311</v>
+        <v>0.77655315347601217</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="0">
-        <v>0.72276331456637588</v>
+        <v>0.88492144691478869</v>
       </c>
       <c r="Y59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.60318267653348134</v>
+        <v>0.82155142390710423</v>
       </c>
       <c r="BF59" s="0">
         <v>0.77655315347601217</v>
@@ -12462,10 +12462,10 @@
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.70982325551256276</v>
+        <v>0.77678455984245964</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0.54504294309203305</v>
+        <v>0.60032835536416818</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12662,7 +12662,7 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0.54367382598816238</v>
+        <v>0.66811295261333847</v>
       </c>
       <c r="BH61" s="0">
         <v>0.77678455984245964</v>
@@ -12680,7 +12680,7 @@
         <v>0</v>
       </c>
       <c r="BM61" s="0">
-        <v>0.7290066008077889</v>
+        <v>0.92827104505839553</v>
       </c>
       <c r="BN61" s="0">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0.60032835536416818</v>
       </c>
       <c r="BI62" s="0">
-        <v>0.58431082079008578</v>
+        <v>0.65439971587443457</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12900,7 +12900,7 @@
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>0.65589652701055556</v>
+        <v>0.79631261692676392</v>
       </c>
       <c r="B63" s="0">
         <v>0</v>
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="AF63" s="0">
-        <v>0.60476504855329272</v>
+        <v>0.74224325402001212</v>
       </c>
       <c r="AG63" s="0">
         <v>0</v>
@@ -13083,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.52870636487669587</v>
+        <v>0.67363466881383238</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="0">
-        <v>0.50838726911440846</v>
+        <v>0.89738304929979451</v>
       </c>
       <c r="C64" s="0">
         <v>0</v>
@@ -13181,7 +13181,7 @@
         <v>0</v>
       </c>
       <c r="Z64" s="0">
-        <v>0.60069195851939139</v>
+        <v>0.62393331906480198</v>
       </c>
       <c r="AA64" s="0">
         <v>0</v>
@@ -13289,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0.50850956936160796</v>
+        <v>0.51622098816946305</v>
       </c>
       <c r="BK64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.60685309470092608</v>
+        <v>0.71437321325248981</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13596,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="0">
-        <v>0.87531918970717593</v>
+        <v>0.98809367272803228</v>
       </c>
       <c r="AB66" s="0">
         <v>0</v>
@@ -13710,16 +13710,16 @@
         <v>0.71437321325248981</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.57605563484788203</v>
+        <v>0.82194912212470839</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>0.74999618986789285</v>
+        <v>0.99973303513788059</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.57078493406134356</v>
+        <v>0.57103300446304073</v>
       </c>
     </row>
     <row r="67">
@@ -13832,7 +13832,7 @@
         <v>0</v>
       </c>
       <c r="AK67" s="0">
-        <v>0.50587489434048583</v>
+        <v>0.85659835770909643</v>
       </c>
       <c r="AL67" s="0">
         <v>0</v>
@@ -13925,12 +13925,12 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.74434527120494121</v>
+        <v>0.96213047349495373</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>0.52085464957356087</v>
+        <v>0.75363057107493181</v>
       </c>
       <c r="B68" s="0">
         <v>0.89335677986234918</v>
